--- a/201603pitcher/先発カレンダー.xlsx
+++ b/201603pitcher/先発カレンダー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="15" windowWidth="9825" windowHeight="7995" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="420" yWindow="120" windowWidth="9825" windowHeight="6390" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="E calendar" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="195">
   <si>
     <t>O1</t>
   </si>
@@ -647,6 +647,18 @@
   </si>
   <si>
     <t>O1ディクソン</t>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1st Ace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2nd Ace</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1021,11 +1033,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1836,6 +1846,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2664,6 +2726,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3466,6 +3580,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3474,10 +3640,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4277,6 +4443,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4285,38 +4503,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="3.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J1" t="s">
@@ -4327,25 +4545,25 @@
       <c r="A2" s="3">
         <v>42085</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
@@ -4356,22 +4574,22 @@
       <c r="A3" s="3">
         <v>42092</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -4385,25 +4603,25 @@
       <c r="A4" s="3">
         <v>42099</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -4417,22 +4635,22 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -4446,22 +4664,22 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -4475,22 +4693,22 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4501,22 +4719,22 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -4527,25 +4745,25 @@
       <c r="A9" s="3">
         <v>42134</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -4556,26 +4774,26 @@
       <c r="A10" s="3">
         <v>42141</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
@@ -4585,25 +4803,25 @@
       <c r="A11" s="3">
         <v>42148</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J11" t="s">
@@ -4614,25 +4832,25 @@
       <c r="A12" s="3">
         <v>42155</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J12" t="s">
@@ -4643,25 +4861,25 @@
       <c r="A13" s="3">
         <v>42162</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J13" t="s">
@@ -4672,25 +4890,25 @@
       <c r="A14" s="3">
         <v>42169</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4698,25 +4916,25 @@
       <c r="A15" s="3">
         <v>42176</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4724,25 +4942,25 @@
       <c r="A16" s="3">
         <v>42183</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4750,25 +4968,25 @@
       <c r="A17" s="3">
         <v>42190</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4776,25 +4994,25 @@
       <c r="A18" s="3">
         <v>42197</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4802,25 +5020,25 @@
       <c r="A19" s="3">
         <v>42204</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4828,25 +5046,25 @@
       <c r="A20" s="3">
         <v>42211</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4854,25 +5072,25 @@
       <c r="A21" s="3">
         <v>42218</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4880,25 +5098,25 @@
       <c r="A22" s="3">
         <v>42225</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4906,25 +5124,25 @@
       <c r="A23" s="3">
         <v>42232</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4932,22 +5150,22 @@
       <c r="A24" s="3">
         <v>42239</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -4958,22 +5176,22 @@
       <c r="A25" s="3">
         <v>42246</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -4984,22 +5202,22 @@
       <c r="A26" s="3">
         <v>42253</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -5010,25 +5228,25 @@
       <c r="A27" s="3">
         <v>42260</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5036,22 +5254,22 @@
       <c r="A28" s="3">
         <v>42267</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -5062,22 +5280,22 @@
       <c r="A29" s="3">
         <v>42274</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -5088,50 +5306,108 @@
       <c r="A30" s="3">
         <v>42281</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5143,10 +5419,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5975,72 +6251,130 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>5</v>
       </c>
-      <c r="H31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6052,10 +6386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6871,6 +7205,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6879,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7692,6 +8078,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7700,10 +8138,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8495,54 +8933,126 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="4">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H35" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8554,15 +9064,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" activeCellId="8" sqref="E20 E21 E22 E23 E24 H25 H26 H27 G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="3.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -9360,6 +9870,58 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9370,10 +9932,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10203,6 +10765,58 @@
         <v>142</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10211,10 +10825,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11014,6 +11628,58 @@
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
